--- a/cereal.xlsx
+++ b/cereal.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E65BF2-A0BC-433D-825C-C6978534A308}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B40F73-7F13-4471-A19F-C067ACB49ED8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="3" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="DashBoard" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_cereal.xlsxcereal" hidden="1">cereal[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_cereal.xlsxcereal1" hidden="1">cereal[]</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">Data!$A$1:$P$78</definedName>
     <definedName name="Slicer_Manufacture1">#N/A</definedName>
     <definedName name="Slicer_name">#N/A</definedName>
@@ -72,7 +72,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="cereal" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_cereal.xlsxcereal"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_cereal.xlsxcereal1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="130">
   <si>
     <t>name</t>
   </si>
@@ -551,6 +551,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -561,8 +563,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11696,540 +11696,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8C9D798E-6505-49B9-8D2C-3C8C5F7713CC}" name="Top5Cereals" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A27:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" insertBlankRow="1" measureFilter="1" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" insertBlankRow="1" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" insertBlankRow="1" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x v="1"/>
-      <x v="1"/>
-    </i>
-    <i t="blank">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x/>
-    </i>
-    <i t="blank">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x/>
-    </i>
-    <i t="blank">
-      <x v="4"/>
-    </i>
-    <i>
-      <x/>
-      <x/>
-    </i>
-    <i t="blank">
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i t="blank">
-      <x v="2"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of rating" fld="1" baseField="0" baseItem="14"/>
-  </dataFields>
-  <chartFormats count="13">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="46">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Sum of rating"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Max of rating"/>
-    <pivotHierarchy dragToData="1" caption="Count of rating"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="0" type="count" id="5" iMeasureHier="22">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="5" filterVal="5"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="0"/>
-    <rowHierarchyUsage hierarchyUsage="18"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_cereal.xlsx!cereal">
-        <x15:activeTabTopLevelEntity name="[cereal]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0" InsertBlankRowDefault="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4E73E92-398C-460A-997D-FB3F1AF7D77E}" name="QualityManufacture" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A3:C22" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" insertBlankRow="1" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" insertBlankRow="1" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" insertBlankRow="1" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="19">
-    <i>
-      <x/>
-      <x/>
-    </i>
-    <i t="blank">
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="blank">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="blank">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i t="blank">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="blank">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="blank">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of rating" fld="1" subtotal="average" baseField="0" baseItem="0" numFmtId="1"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="9">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="46">
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Average of rating"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="18"/>
-    <rowHierarchyUsage hierarchyUsage="16"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_cereal.xlsx!cereal">
-        <x15:activeTabTopLevelEntity name="[cereal]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0" InsertBlankRowDefault="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{28978EC6-1DA2-4EA5-9328-705599B35A9C}" name="PropertyForEveryManufacture" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="12">
   <location ref="A46:J53" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
@@ -12328,10 +11794,10 @@
     <dataField name="Average of vitamins" fld="10" subtotal="average" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="11">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="9">
@@ -12708,6 +12174,540 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8C9D798E-6505-49B9-8D2C-3C8C5F7713CC}" name="Top5Cereals" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A27:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" insertBlankRow="1" measureFilter="1" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" insertBlankRow="1" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" insertBlankRow="1" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i t="blank">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x/>
+    </i>
+    <i t="blank">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x/>
+    </i>
+    <i t="blank">
+      <x v="4"/>
+    </i>
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i t="blank">
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i t="blank">
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of rating" fld="1" baseField="0" baseItem="14"/>
+  </dataFields>
+  <chartFormats count="13">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="46">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Sum of rating"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Max of rating"/>
+    <pivotHierarchy dragToData="1" caption="Count of rating"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="count" id="5" iMeasureHier="22">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="5" filterVal="5"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="0"/>
+    <rowHierarchyUsage hierarchyUsage="18"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_cereal.xlsx!cereal">
+        <x15:activeTabTopLevelEntity name="[cereal]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0" InsertBlankRowDefault="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4E73E92-398C-460A-997D-FB3F1AF7D77E}" name="QualityManufacture" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A3:C22" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" insertBlankRow="1" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" insertBlankRow="1" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" insertBlankRow="1" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="19">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i t="blank">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="blank">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="blank">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i t="blank">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="blank">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="blank">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of rating" fld="1" subtotal="average" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="11">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="46">
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Average of rating"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="18"/>
+    <rowHierarchyUsage hierarchyUsage="16"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_cereal.xlsx!cereal">
+        <x15:activeTabTopLevelEntity name="[cereal]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0" InsertBlankRowDefault="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{30873527-E45A-4E87-B9B7-F42A8068E2F5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="20" unboundColumnsRight="3">
@@ -12886,13 +12886,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52999AC3-B366-40CC-B615-278E2C7F6EF1}" name="cereal" displayName="cereal" ref="A1:S79" tableType="queryTable" totalsRowCount="1">
-  <autoFilter ref="A1:S78" xr:uid="{ED3DF6E3-08E4-4BF3-97F5-0D269CA20117}">
-    <filterColumn colId="18">
-      <filters>
-        <filter val="General Mils"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:S78" xr:uid="{ED3DF6E3-08E4-4BF3-97F5-0D269CA20117}"/>
   <sortState ref="A2:S78">
     <sortCondition descending="1" ref="P1:P78"/>
   </sortState>
@@ -13212,23 +13206,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -13391,23 +13385,23 @@
       <c r="B24"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
@@ -13520,23 +13514,23 @@
       <c r="C43"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B45"/>
@@ -14217,7 +14211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6780CEA6-7257-420F-ADAD-803AB6D713BF}">
   <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
       <selection activeCell="Q81" sqref="Q81"/>
     </sheetView>
   </sheetViews>
@@ -14302,7 +14296,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -14364,7 +14358,7 @@
         <v>Kelloggs</v>
       </c>
     </row>
-    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>89</v>
       </c>
@@ -14426,7 +14420,7 @@
         <v>Nabisco</v>
       </c>
     </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>90</v>
       </c>
@@ -14488,7 +14482,7 @@
         <v>Nabisco</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -14550,7 +14544,7 @@
         <v>Nabisco</v>
       </c>
     </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
@@ -14612,7 +14606,7 @@
         <v>Nabisco</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -14674,7 +14668,7 @@
         <v>Nabisco</v>
       </c>
     </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -14736,7 +14730,7 @@
         <v>Quaker Oats</v>
       </c>
     </row>
-    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>79</v>
       </c>
@@ -14798,7 +14792,7 @@
         <v>Quaker Oats</v>
       </c>
     </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>75</v>
       </c>
@@ -14860,7 +14854,7 @@
         <v>Kelloggs</v>
       </c>
     </row>
-    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -14922,7 +14916,7 @@
         <v>Kelloggs</v>
       </c>
     </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>93</v>
       </c>
@@ -14984,7 +14978,7 @@
         <v>Nabisco</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -15046,7 +15040,7 @@
         <v>Kelloggs</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>85</v>
       </c>
@@ -15108,7 +15102,7 @@
         <v>Kelloggs</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -15170,7 +15164,7 @@
         <v>American Home Food Products</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>57</v>
       </c>
@@ -15232,7 +15226,7 @@
         <v>Post</v>
       </c>
     </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -15294,7 +15288,7 @@
         <v>Post</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>92</v>
       </c>
@@ -15356,7 +15350,7 @@
         <v>Kelloggs</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -15480,7 +15474,7 @@
         <v>General Mils</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
@@ -15604,7 +15598,7 @@
         <v>General Mils</v>
       </c>
     </row>
-    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>99</v>
       </c>
@@ -15666,7 +15660,7 @@
         <v>Ralston Purina</v>
       </c>
     </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>81</v>
       </c>
@@ -15728,7 +15722,7 @@
         <v>Quaker Oats</v>
       </c>
     </row>
-    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -15790,7 +15784,7 @@
         <v>Ralston Purina</v>
       </c>
     </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -15914,7 +15908,7 @@
         <v>General Mils</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -15976,7 +15970,7 @@
         <v>Kelloggs</v>
       </c>
     </row>
-    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -16038,7 +16032,7 @@
         <v>Post</v>
       </c>
     </row>
-    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -16100,7 +16094,7 @@
         <v>Quaker Oats</v>
       </c>
     </row>
-    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
@@ -16162,7 +16156,7 @@
         <v>Ralston Purina</v>
       </c>
     </row>
-    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>86</v>
       </c>
@@ -16224,7 +16218,7 @@
         <v>Ralston Purina</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>78</v>
       </c>
@@ -16286,7 +16280,7 @@
         <v>Kelloggs</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -16348,7 +16342,7 @@
         <v>Ralston Purina</v>
       </c>
     </row>
-    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
@@ -16410,7 +16404,7 @@
         <v>Kelloggs</v>
       </c>
     </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
@@ -16472,7 +16466,7 @@
         <v>Post</v>
       </c>
     </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
@@ -16534,7 +16528,7 @@
         <v>Kelloggs</v>
       </c>
     </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>87</v>
       </c>
@@ -16596,7 +16590,7 @@
         <v>Kelloggs</v>
       </c>
     </row>
-    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
@@ -16844,7 +16838,7 @@
         <v>General Mils</v>
       </c>
     </row>
-    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>83</v>
       </c>
@@ -17092,7 +17086,7 @@
         <v>General Mils</v>
       </c>
     </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>77</v>
       </c>
@@ -17154,7 +17148,7 @@
         <v>Post</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>69</v>
       </c>
@@ -17278,7 +17272,7 @@
         <v>General Mils</v>
       </c>
     </row>
-    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -17340,7 +17334,7 @@
         <v>Kelloggs</v>
       </c>
     </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
@@ -17526,7 +17520,7 @@
         <v>General Mils</v>
       </c>
     </row>
-    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>40</v>
       </c>
@@ -17588,7 +17582,7 @@
         <v>Kelloggs</v>
       </c>
     </row>
-    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -17650,7 +17644,7 @@
         <v>Post</v>
       </c>
     </row>
-    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>24</v>
       </c>
@@ -17712,7 +17706,7 @@
         <v>Ralston Purina</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>70</v>
       </c>
@@ -17774,7 +17768,7 @@
         <v>Ralston Purina</v>
       </c>
     </row>
-    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>19</v>
       </c>
@@ -17836,7 +17830,7 @@
         <v>Quaker Oats</v>
       </c>
     </row>
-    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>28</v>
       </c>
@@ -17898,7 +17892,7 @@
         <v>Kelloggs</v>
       </c>
     </row>
-    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>48</v>
       </c>
@@ -17960,7 +17954,7 @@
         <v>Kelloggs</v>
       </c>
     </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>49</v>
       </c>
@@ -18022,7 +18016,7 @@
         <v>Kelloggs</v>
       </c>
     </row>
-    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>91</v>
       </c>
@@ -18208,7 +18202,7 @@
         <v>General Mils</v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>71</v>
       </c>
@@ -18270,7 +18264,7 @@
         <v>Kelloggs</v>
       </c>
     </row>
-    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>73</v>
       </c>
@@ -18394,7 +18388,7 @@
         <v>General Mils</v>
       </c>
     </row>
-    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>61</v>
       </c>
@@ -18518,7 +18512,7 @@
         <v>General Mils</v>
       </c>
     </row>
-    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>53</v>
       </c>
@@ -18890,7 +18884,7 @@
         <v>General Mils</v>
       </c>
     </row>
-    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>59</v>
       </c>
@@ -19014,7 +19008,7 @@
         <v>General Mils</v>
       </c>
     </row>
-    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>33</v>
       </c>
@@ -19093,7 +19087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="105" zoomScaleNormal="131" workbookViewId="0">
+    <sheetView topLeftCell="C31" zoomScale="105" zoomScaleNormal="131" workbookViewId="0">
       <selection activeCell="Y4" sqref="Y4:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -19104,108 +19098,108 @@
   <sheetData>
     <row r="1" spans="1:24" ht="5.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-    </row>
-    <row r="4" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-    </row>
-    <row r="5" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+    </row>
+    <row r="4" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+    </row>
+    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
